--- a/Test status report.xlsx
+++ b/Test status report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4DF6C7-5E5F-43AD-A090-82D079270DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1E5E1-422F-4EDF-B830-2FFC38DEB305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="143">
   <si>
     <t>Test Suite/Scenario</t>
   </si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>blank username field, valid password</t>
-  </si>
-  <si>
-    <t>password for both fields</t>
-  </si>
-  <si>
-    <t>username for both fields</t>
   </si>
   <si>
     <t>username with capitals</t>
@@ -251,16 +245,6 @@
   <si>
     <t>1.open browser (Chrome) and acces website
 2.use a valid password and leave username field empty
-3.press "login"</t>
-  </si>
-  <si>
-    <t>1.open browser (Chrome) and acces website
-2.fill both fields with valid password
-3.press "login"</t>
-  </si>
-  <si>
-    <t>1.open browser (Chrome) and acces website
-2.fill both fields with valid username
 3.press "login"</t>
   </si>
   <si>
@@ -349,13 +333,6 @@
 2.login with valid credentials
 3.click on the title(product name) of a product
 4.press "add to cart" button</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.click on the title(product name) of a product
-4.press "add to cart" button
-5.press "remove" button</t>
   </si>
   <si>
     <t>1.open browser(Chrome) and acces website
@@ -522,9 +499,6 @@
     <t>Forward to "Homepage"</t>
   </si>
   <si>
-    <t>Displayed message: "Epic sadface: Username and password do not patch any user in this service"</t>
-  </si>
-  <si>
     <t>Displayed message: "Epic sadface: Password is required"</t>
   </si>
   <si>
@@ -626,6 +600,30 @@
   </si>
   <si>
     <t>Cart should be empty</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.click on the picture of a product
+4.press "add to cart" button
+5.press "remove" button</t>
+  </si>
+  <si>
+    <t>First name: Blake
+Zip/PostalCode: 
+CM13 3EL</t>
+  </si>
+  <si>
+    <t>Last name: Jackson 
+Zip/PostalCode: 
+1110-1060</t>
+  </si>
+  <si>
+    <t>First name: Blake
+Second name: JACKSON</t>
+  </si>
+  <si>
+    <t>Displayed message: "Epic sadface: Username and password do not match any user in this service"</t>
   </si>
 </sst>
 </file>
@@ -726,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,17 +741,11 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -761,27 +753,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,1713 +1205,1797 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K966"/>
+  <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" style="8" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="48.77734375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="7" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="48.77734375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19.109375" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="1026" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="16">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="18">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="18">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="16">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="18">
+        <v>8</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="18">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="16">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="7">
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="18">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="18">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="16">
+        <v>13</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="18">
+        <v>14</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="18">
+        <v>15</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="16">
+        <v>16</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="18">
+        <v>18</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="16">
+        <v>19</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="18">
+        <v>20</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="22" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="18">
+        <v>21</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+    </row>
+    <row r="23" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="16">
+        <v>22</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="18">
+        <v>23</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="18">
+        <v>24</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+    </row>
+    <row r="26" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="16">
+        <v>25</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="18">
         <v>26</v>
       </c>
-      <c r="D3" s="7">
+      <c r="C27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="18">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="E27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="18">
         <v>27</v>
       </c>
-      <c r="D4" s="7">
+      <c r="C28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="E28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="16">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
+      <c r="C29" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E29" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="18">
         <v>29</v>
       </c>
-      <c r="D6" s="7">
+      <c r="C30" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="18">
+        <v>30</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="E31" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="16">
+        <v>31</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="7">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="E32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="18">
+        <v>32</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="7">
-        <v>8</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="E33" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="18">
+        <v>33</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="7">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="E34" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="16">
+        <v>34</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="18">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="E35" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="18">
         <v>35</v>
       </c>
-      <c r="D11" s="7">
+      <c r="C36" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="18">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="6">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="E36" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="18">
+        <v>36</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="18">
         <v>1</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="7">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="E37" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="16">
+        <v>37</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="18">
         <v>1</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="7">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="E38" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="18">
+        <v>38</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="18">
+        <v>39</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="18">
+        <v>1</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="16">
+        <v>40</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="7">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="6">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="7">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="7">
-        <v>18</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="7">
-        <v>19</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="6">
-        <v>20</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="6">
-        <v>21</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="7">
-        <v>22</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="7">
-        <v>23</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="7">
-        <v>24</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="6">
-        <v>25</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="6">
-        <v>26</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="7">
-        <v>27</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="7">
-        <v>28</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="7">
-        <v>29</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="6">
-        <v>30</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="6">
-        <v>31</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="7">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="7">
-        <v>33</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="7">
-        <v>34</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="6">
-        <v>35</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="6">
-        <v>36</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="19" t="s">
+      <c r="E41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="7">
-        <v>37</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="7">
-        <v>38</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="7">
-        <v>39</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="6">
-        <v>40</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="6">
-        <v>41</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>142</v>
-      </c>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="F42" s="11"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="7">
-        <v>42</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="7">
-        <v>2</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>143</v>
-      </c>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="8"/>
+      <c r="F43" s="11"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="10"/>
-      <c r="F44" s="15"/>
+      <c r="C44" s="8"/>
+      <c r="F44" s="11"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="10"/>
-      <c r="F45" s="15"/>
+      <c r="C45" s="8"/>
+      <c r="F45" s="11"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="10"/>
-      <c r="F46" s="15"/>
+      <c r="C46" s="8"/>
+      <c r="F46" s="11"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="10"/>
-      <c r="F47" s="15"/>
+      <c r="C47" s="8"/>
+      <c r="F47" s="11"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="10"/>
-      <c r="F48" s="15"/>
+      <c r="C48" s="8"/>
+      <c r="F48" s="11"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="10"/>
-      <c r="F49" s="15"/>
+      <c r="C49" s="8"/>
+      <c r="F49" s="11"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="10"/>
-      <c r="F50" s="15"/>
+      <c r="C50" s="8"/>
+      <c r="F50" s="11"/>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="10"/>
-      <c r="F51" s="15"/>
+      <c r="C51" s="8"/>
+      <c r="F51" s="11"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="10"/>
-      <c r="F52" s="15"/>
+      <c r="C52" s="8"/>
+      <c r="F52" s="11"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="10"/>
-      <c r="F53" s="15"/>
+      <c r="C53" s="8"/>
+      <c r="F53" s="11"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="10"/>
-      <c r="F54" s="15"/>
+      <c r="C54" s="8"/>
+      <c r="F54" s="11"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="10"/>
-      <c r="F55" s="15"/>
+      <c r="C55" s="8"/>
+      <c r="F55" s="11"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="10"/>
-      <c r="F56" s="15"/>
+      <c r="C56" s="8"/>
+      <c r="F56" s="11"/>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="10"/>
-      <c r="F57" s="15"/>
+      <c r="C57" s="8"/>
+      <c r="F57" s="11"/>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="10"/>
-      <c r="F58" s="15"/>
+      <c r="C58" s="8"/>
+      <c r="F58" s="11"/>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="10"/>
-      <c r="F59" s="15"/>
+      <c r="C59" s="8"/>
+      <c r="F59" s="11"/>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="10"/>
-      <c r="F60" s="15"/>
+      <c r="C60" s="8"/>
+      <c r="F60" s="11"/>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="10"/>
-      <c r="F61" s="15"/>
+      <c r="C61" s="8"/>
+      <c r="F61" s="11"/>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="10"/>
-      <c r="F62" s="15"/>
+      <c r="C62" s="8"/>
+      <c r="F62" s="11"/>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="10"/>
-      <c r="F63" s="15"/>
+      <c r="C63" s="8"/>
+      <c r="F63" s="11"/>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="10"/>
-      <c r="F64" s="15"/>
+      <c r="C64" s="8"/>
+      <c r="F64" s="11"/>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="10"/>
-      <c r="F65" s="15"/>
+      <c r="C65" s="8"/>
+      <c r="F65" s="11"/>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="10"/>
-      <c r="F66" s="15"/>
+      <c r="C66" s="8"/>
+      <c r="F66" s="11"/>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="10"/>
-      <c r="F67" s="15"/>
+      <c r="C67" s="8"/>
+      <c r="F67" s="11"/>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="10"/>
-      <c r="F68" s="15"/>
+      <c r="C68" s="8"/>
+      <c r="F68" s="11"/>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="10"/>
-      <c r="F69" s="15"/>
+      <c r="C69" s="8"/>
+      <c r="F69" s="11"/>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="10"/>
-      <c r="F70" s="15"/>
+      <c r="C70" s="8"/>
+      <c r="F70" s="11"/>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="10"/>
-      <c r="F71" s="15"/>
+      <c r="C71" s="8"/>
+      <c r="F71" s="11"/>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="10"/>
-      <c r="F72" s="15"/>
+      <c r="C72" s="8"/>
+      <c r="F72" s="11"/>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="10"/>
-      <c r="F73" s="15"/>
+      <c r="C73" s="8"/>
+      <c r="F73" s="11"/>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="10"/>
-      <c r="F74" s="15"/>
+      <c r="C74" s="8"/>
+      <c r="F74" s="11"/>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="10"/>
-      <c r="F75" s="15"/>
+      <c r="C75" s="8"/>
+      <c r="F75" s="11"/>
       <c r="K75" s="1"/>
     </row>
     <row r="76" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="10"/>
-      <c r="F76" s="15"/>
+      <c r="C76" s="8"/>
+      <c r="F76" s="11"/>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="10"/>
-      <c r="F77" s="15"/>
+      <c r="C77" s="8"/>
+      <c r="F77" s="11"/>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="10"/>
-      <c r="F78" s="15"/>
+      <c r="C78" s="8"/>
+      <c r="F78" s="11"/>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="10"/>
-      <c r="F79" s="15"/>
+      <c r="C79" s="8"/>
+      <c r="F79" s="11"/>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="10"/>
-      <c r="F80" s="15"/>
+      <c r="C80" s="8"/>
+      <c r="F80" s="11"/>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="10"/>
-      <c r="F81" s="15"/>
+      <c r="C81" s="8"/>
+      <c r="F81" s="11"/>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="10"/>
-      <c r="F82" s="15"/>
+      <c r="C82" s="8"/>
+      <c r="F82" s="11"/>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="10"/>
-      <c r="F83" s="15"/>
+      <c r="C83" s="8"/>
+      <c r="F83" s="11"/>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="10"/>
-      <c r="F84" s="15"/>
+      <c r="C84" s="8"/>
+      <c r="F84" s="11"/>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="10"/>
-      <c r="F85" s="15"/>
+      <c r="C85" s="8"/>
+      <c r="F85" s="11"/>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="10"/>
-      <c r="F86" s="15"/>
+      <c r="C86" s="8"/>
+      <c r="F86" s="11"/>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="10"/>
-      <c r="F87" s="15"/>
+      <c r="C87" s="8"/>
+      <c r="F87" s="11"/>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="10"/>
-      <c r="F88" s="15"/>
+      <c r="C88" s="8"/>
+      <c r="F88" s="11"/>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="10"/>
-      <c r="F89" s="15"/>
+      <c r="C89" s="8"/>
+      <c r="F89" s="11"/>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="10"/>
-      <c r="F90" s="15"/>
+      <c r="C90" s="8"/>
+      <c r="F90" s="11"/>
       <c r="K90" s="1"/>
     </row>
     <row r="91" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="10"/>
-      <c r="F91" s="15"/>
+      <c r="C91" s="8"/>
+      <c r="F91" s="11"/>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="10"/>
-      <c r="F92" s="15"/>
+      <c r="C92" s="8"/>
+      <c r="F92" s="11"/>
       <c r="K92" s="1"/>
     </row>
     <row r="93" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="10"/>
-      <c r="F93" s="15"/>
+      <c r="C93" s="8"/>
+      <c r="F93" s="11"/>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="10"/>
-      <c r="F94" s="15"/>
+      <c r="C94" s="8"/>
+      <c r="F94" s="11"/>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="10"/>
-      <c r="F95" s="15"/>
+      <c r="C95" s="8"/>
+      <c r="F95" s="11"/>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="10"/>
-      <c r="F96" s="15"/>
+      <c r="C96" s="8"/>
+      <c r="F96" s="11"/>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="10"/>
-      <c r="F97" s="15"/>
+      <c r="C97" s="8"/>
+      <c r="F97" s="11"/>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="10"/>
-      <c r="F98" s="15"/>
+      <c r="C98" s="8"/>
+      <c r="F98" s="11"/>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="10"/>
-      <c r="F99" s="15"/>
+      <c r="C99" s="8"/>
+      <c r="F99" s="11"/>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="10"/>
-      <c r="F100" s="15"/>
+      <c r="C100" s="8"/>
+      <c r="F100" s="11"/>
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="10"/>
-      <c r="F101" s="15"/>
+      <c r="C101" s="8"/>
+      <c r="F101" s="11"/>
       <c r="K101" s="1"/>
     </row>
     <row r="102" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="10"/>
-      <c r="F102" s="15"/>
+      <c r="C102" s="8"/>
+      <c r="F102" s="11"/>
       <c r="K102" s="1"/>
     </row>
     <row r="103" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="10"/>
-      <c r="F103" s="15"/>
+      <c r="C103" s="8"/>
+      <c r="F103" s="11"/>
       <c r="K103" s="1"/>
     </row>
     <row r="104" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="10"/>
-      <c r="F104" s="15"/>
+      <c r="C104" s="8"/>
+      <c r="F104" s="11"/>
       <c r="K104" s="1"/>
     </row>
     <row r="105" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="10"/>
-      <c r="F105" s="15"/>
+      <c r="C105" s="8"/>
+      <c r="F105" s="11"/>
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="10"/>
-      <c r="F106" s="15"/>
+      <c r="C106" s="8"/>
+      <c r="F106" s="11"/>
       <c r="K106" s="1"/>
     </row>
     <row r="107" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="10"/>
-      <c r="F107" s="15"/>
+      <c r="C107" s="8"/>
+      <c r="F107" s="11"/>
       <c r="K107" s="1"/>
     </row>
     <row r="108" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C108" s="10"/>
-      <c r="F108" s="15"/>
+      <c r="C108" s="8"/>
+      <c r="F108" s="11"/>
       <c r="K108" s="1"/>
     </row>
     <row r="109" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="10"/>
-      <c r="F109" s="15"/>
+      <c r="C109" s="8"/>
+      <c r="F109" s="11"/>
       <c r="K109" s="1"/>
     </row>
     <row r="110" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C110" s="10"/>
-      <c r="F110" s="15"/>
+      <c r="C110" s="8"/>
+      <c r="F110" s="11"/>
       <c r="K110" s="1"/>
     </row>
     <row r="111" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" s="10"/>
-      <c r="F111" s="15"/>
+      <c r="C111" s="8"/>
+      <c r="F111" s="11"/>
       <c r="K111" s="1"/>
     </row>
     <row r="112" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" s="10"/>
-      <c r="F112" s="15"/>
+      <c r="C112" s="8"/>
+      <c r="F112" s="11"/>
       <c r="K112" s="1"/>
     </row>
     <row r="113" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="10"/>
-      <c r="F113" s="15"/>
+      <c r="C113" s="8"/>
+      <c r="F113" s="11"/>
       <c r="K113" s="1"/>
     </row>
     <row r="114" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="10"/>
-      <c r="F114" s="15"/>
+      <c r="C114" s="8"/>
+      <c r="F114" s="11"/>
       <c r="K114" s="1"/>
     </row>
     <row r="115" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="10"/>
-      <c r="F115" s="15"/>
+      <c r="C115" s="8"/>
+      <c r="F115" s="11"/>
       <c r="K115" s="1"/>
     </row>
     <row r="116" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="10"/>
-      <c r="F116" s="15"/>
+      <c r="C116" s="8"/>
+      <c r="F116" s="11"/>
       <c r="K116" s="1"/>
     </row>
     <row r="117" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="10"/>
-      <c r="F117" s="15"/>
+      <c r="C117" s="8"/>
+      <c r="F117" s="11"/>
       <c r="K117" s="1"/>
     </row>
     <row r="118" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="10"/>
-      <c r="F118" s="15"/>
+      <c r="C118" s="8"/>
+      <c r="F118" s="11"/>
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" s="10"/>
-      <c r="F119" s="15"/>
+      <c r="C119" s="8"/>
+      <c r="F119" s="11"/>
       <c r="K119" s="1"/>
     </row>
     <row r="120" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="10"/>
-      <c r="F120" s="15"/>
+      <c r="C120" s="8"/>
+      <c r="F120" s="11"/>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="10"/>
-      <c r="F121" s="15"/>
+      <c r="C121" s="8"/>
+      <c r="F121" s="11"/>
       <c r="K121" s="1"/>
     </row>
     <row r="122" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="10"/>
-      <c r="F122" s="15"/>
+      <c r="C122" s="8"/>
+      <c r="F122" s="11"/>
       <c r="K122" s="1"/>
     </row>
     <row r="123" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="10"/>
-      <c r="F123" s="15"/>
+      <c r="C123" s="8"/>
+      <c r="F123" s="11"/>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="10"/>
-      <c r="F124" s="15"/>
+      <c r="C124" s="8"/>
+      <c r="F124" s="11"/>
       <c r="K124" s="1"/>
     </row>
     <row r="125" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="10"/>
-      <c r="F125" s="15"/>
+      <c r="C125" s="8"/>
+      <c r="F125" s="11"/>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="10"/>
-      <c r="F126" s="15"/>
+      <c r="C126" s="8"/>
+      <c r="F126" s="11"/>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="10"/>
-      <c r="F127" s="15"/>
+      <c r="C127" s="8"/>
+      <c r="F127" s="11"/>
       <c r="K127" s="1"/>
     </row>
     <row r="128" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="10"/>
-      <c r="F128" s="15"/>
+      <c r="C128" s="8"/>
+      <c r="F128" s="11"/>
       <c r="K128" s="1"/>
     </row>
     <row r="129" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="10"/>
-      <c r="F129" s="15"/>
+      <c r="C129" s="8"/>
+      <c r="F129" s="11"/>
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" s="10"/>
-      <c r="F130" s="15"/>
+      <c r="C130" s="8"/>
+      <c r="F130" s="11"/>
       <c r="K130" s="1"/>
     </row>
     <row r="131" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="10"/>
-      <c r="F131" s="15"/>
+      <c r="C131" s="8"/>
+      <c r="F131" s="11"/>
       <c r="K131" s="1"/>
     </row>
     <row r="132" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="10"/>
-      <c r="F132" s="15"/>
+      <c r="C132" s="8"/>
+      <c r="F132" s="11"/>
       <c r="K132" s="1"/>
     </row>
     <row r="133" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="10"/>
-      <c r="F133" s="15"/>
+      <c r="C133" s="8"/>
+      <c r="F133" s="11"/>
       <c r="K133" s="1"/>
     </row>
     <row r="134" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="10"/>
-      <c r="F134" s="15"/>
+      <c r="C134" s="8"/>
+      <c r="F134" s="11"/>
       <c r="K134" s="1"/>
     </row>
     <row r="135" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="10"/>
-      <c r="F135" s="15"/>
+      <c r="C135" s="8"/>
+      <c r="F135" s="11"/>
       <c r="K135" s="1"/>
     </row>
     <row r="136" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="10"/>
-      <c r="F136" s="15"/>
+      <c r="C136" s="8"/>
+      <c r="F136" s="11"/>
       <c r="K136" s="1"/>
     </row>
     <row r="137" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="10"/>
-      <c r="F137" s="15"/>
+      <c r="C137" s="8"/>
+      <c r="F137" s="11"/>
       <c r="K137" s="1"/>
     </row>
     <row r="138" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="10"/>
-      <c r="F138" s="15"/>
+      <c r="C138" s="8"/>
+      <c r="F138" s="11"/>
       <c r="K138" s="1"/>
     </row>
     <row r="139" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="10"/>
-      <c r="F139" s="15"/>
+      <c r="C139" s="8"/>
+      <c r="F139" s="11"/>
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="10"/>
-      <c r="F140" s="15"/>
+      <c r="C140" s="8"/>
+      <c r="F140" s="11"/>
       <c r="K140" s="1"/>
     </row>
     <row r="141" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="10"/>
-      <c r="F141" s="15"/>
+      <c r="C141" s="8"/>
+      <c r="F141" s="11"/>
       <c r="K141" s="1"/>
     </row>
     <row r="142" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" s="10"/>
-      <c r="F142" s="15"/>
+      <c r="C142" s="8"/>
+      <c r="F142" s="11"/>
       <c r="K142" s="1"/>
     </row>
     <row r="143" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" s="10"/>
-      <c r="F143" s="15"/>
+      <c r="C143" s="8"/>
+      <c r="F143" s="11"/>
       <c r="K143" s="1"/>
     </row>
     <row r="144" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="10"/>
-      <c r="F144" s="15"/>
+      <c r="C144" s="8"/>
+      <c r="F144" s="11"/>
       <c r="K144" s="1"/>
     </row>
     <row r="145" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="10"/>
-      <c r="F145" s="15"/>
+      <c r="C145" s="8"/>
+      <c r="F145" s="11"/>
       <c r="K145" s="1"/>
     </row>
     <row r="146" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="10"/>
-      <c r="F146" s="15"/>
+      <c r="C146" s="8"/>
+      <c r="F146" s="11"/>
       <c r="K146" s="1"/>
     </row>
     <row r="147" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="10"/>
-      <c r="F147" s="15"/>
+      <c r="C147" s="8"/>
+      <c r="F147" s="11"/>
       <c r="K147" s="1"/>
     </row>
     <row r="148" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="10"/>
-      <c r="F148" s="15"/>
+      <c r="C148" s="8"/>
+      <c r="F148" s="11"/>
       <c r="K148" s="1"/>
     </row>
     <row r="149" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="10"/>
-      <c r="F149" s="15"/>
+      <c r="C149" s="8"/>
+      <c r="F149" s="11"/>
       <c r="K149" s="1"/>
     </row>
     <row r="150" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="10"/>
-      <c r="F150" s="15"/>
+      <c r="C150" s="8"/>
+      <c r="F150" s="11"/>
       <c r="K150" s="1"/>
     </row>
     <row r="151" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="10"/>
-      <c r="F151" s="15"/>
+      <c r="C151" s="8"/>
+      <c r="F151" s="11"/>
       <c r="K151" s="1"/>
     </row>
     <row r="152" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="10"/>
-      <c r="F152" s="15"/>
+      <c r="C152" s="8"/>
+      <c r="F152" s="11"/>
       <c r="K152" s="1"/>
     </row>
     <row r="153" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="10"/>
-      <c r="F153" s="15"/>
+      <c r="C153" s="8"/>
+      <c r="F153" s="11"/>
       <c r="K153" s="1"/>
     </row>
     <row r="154" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="10"/>
-      <c r="F154" s="15"/>
+      <c r="C154" s="8"/>
+      <c r="F154" s="11"/>
       <c r="K154" s="1"/>
     </row>
     <row r="155" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="10"/>
-      <c r="F155" s="15"/>
+      <c r="C155" s="8"/>
+      <c r="F155" s="11"/>
       <c r="K155" s="1"/>
     </row>
     <row r="156" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C156" s="10"/>
-      <c r="F156" s="15"/>
+      <c r="C156" s="8"/>
+      <c r="F156" s="11"/>
       <c r="K156" s="1"/>
     </row>
     <row r="157" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C157" s="10"/>
-      <c r="F157" s="15"/>
+      <c r="C157" s="8"/>
+      <c r="F157" s="11"/>
       <c r="K157" s="1"/>
     </row>
     <row r="158" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C158" s="10"/>
-      <c r="F158" s="15"/>
+      <c r="C158" s="8"/>
+      <c r="F158" s="11"/>
       <c r="K158" s="1"/>
     </row>
     <row r="159" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="10"/>
-      <c r="F159" s="15"/>
+      <c r="C159" s="8"/>
+      <c r="F159" s="11"/>
       <c r="K159" s="1"/>
     </row>
     <row r="160" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C160" s="10"/>
-      <c r="F160" s="15"/>
+      <c r="C160" s="8"/>
+      <c r="F160" s="11"/>
       <c r="K160" s="1"/>
     </row>
     <row r="161" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C161" s="10"/>
-      <c r="F161" s="15"/>
+      <c r="C161" s="8"/>
+      <c r="F161" s="11"/>
       <c r="K161" s="1"/>
     </row>
     <row r="162" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C162" s="10"/>
-      <c r="F162" s="15"/>
+      <c r="C162" s="8"/>
+      <c r="F162" s="11"/>
       <c r="K162" s="1"/>
     </row>
     <row r="163" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C163" s="10"/>
-      <c r="F163" s="15"/>
+      <c r="C163" s="8"/>
+      <c r="F163" s="11"/>
       <c r="K163" s="1"/>
     </row>
     <row r="164" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="10"/>
-      <c r="F164" s="15"/>
+      <c r="C164" s="8"/>
+      <c r="F164" s="11"/>
       <c r="K164" s="1"/>
     </row>
     <row r="165" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="10"/>
-      <c r="F165" s="15"/>
+      <c r="C165" s="8"/>
+      <c r="F165" s="11"/>
       <c r="K165" s="1"/>
     </row>
     <row r="166" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C166" s="10"/>
-      <c r="F166" s="15"/>
+      <c r="C166" s="8"/>
+      <c r="F166" s="11"/>
       <c r="K166" s="1"/>
     </row>
     <row r="167" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="10"/>
-      <c r="F167" s="15"/>
+      <c r="C167" s="8"/>
+      <c r="F167" s="11"/>
       <c r="K167" s="1"/>
     </row>
     <row r="168" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C168" s="10"/>
-      <c r="F168" s="15"/>
+      <c r="C168" s="8"/>
+      <c r="F168" s="11"/>
       <c r="K168" s="1"/>
     </row>
     <row r="169" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" s="10"/>
-      <c r="F169" s="15"/>
+      <c r="C169" s="8"/>
+      <c r="F169" s="11"/>
       <c r="K169" s="1"/>
     </row>
     <row r="170" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C170" s="10"/>
-      <c r="F170" s="15"/>
+      <c r="C170" s="8"/>
+      <c r="F170" s="11"/>
       <c r="K170" s="1"/>
     </row>
     <row r="171" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C171" s="10"/>
-      <c r="F171" s="15"/>
+      <c r="C171" s="8"/>
+      <c r="F171" s="11"/>
       <c r="K171" s="1"/>
     </row>
     <row r="172" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" s="10"/>
-      <c r="F172" s="15"/>
+      <c r="C172" s="8"/>
+      <c r="F172" s="11"/>
       <c r="K172" s="1"/>
     </row>
     <row r="173" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" s="10"/>
-      <c r="F173" s="15"/>
+      <c r="C173" s="8"/>
+      <c r="F173" s="11"/>
       <c r="K173" s="1"/>
     </row>
     <row r="174" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" s="10"/>
-      <c r="F174" s="15"/>
+      <c r="C174" s="8"/>
+      <c r="F174" s="11"/>
       <c r="K174" s="1"/>
     </row>
     <row r="175" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C175" s="10"/>
-      <c r="F175" s="15"/>
+      <c r="C175" s="8"/>
+      <c r="F175" s="11"/>
       <c r="K175" s="1"/>
     </row>
     <row r="176" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C176" s="10"/>
-      <c r="F176" s="15"/>
+      <c r="C176" s="8"/>
+      <c r="F176" s="11"/>
       <c r="K176" s="1"/>
     </row>
     <row r="177" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="10"/>
-      <c r="F177" s="15"/>
+      <c r="C177" s="8"/>
+      <c r="F177" s="11"/>
       <c r="K177" s="1"/>
     </row>
     <row r="178" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C178" s="10"/>
-      <c r="F178" s="15"/>
+      <c r="C178" s="8"/>
+      <c r="F178" s="11"/>
       <c r="K178" s="1"/>
     </row>
     <row r="179" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C179" s="10"/>
-      <c r="F179" s="15"/>
+      <c r="C179" s="8"/>
+      <c r="F179" s="11"/>
       <c r="K179" s="1"/>
     </row>
     <row r="180" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C180" s="10"/>
-      <c r="F180" s="15"/>
+      <c r="C180" s="8"/>
+      <c r="F180" s="11"/>
       <c r="K180" s="1"/>
     </row>
     <row r="181" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C181" s="10"/>
-      <c r="F181" s="15"/>
+      <c r="C181" s="8"/>
+      <c r="F181" s="11"/>
       <c r="K181" s="1"/>
     </row>
     <row r="182" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C182" s="10"/>
-      <c r="F182" s="15"/>
+      <c r="C182" s="8"/>
+      <c r="F182" s="11"/>
       <c r="K182" s="1"/>
     </row>
     <row r="183" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C183" s="10"/>
-      <c r="F183" s="15"/>
+      <c r="C183" s="8"/>
+      <c r="F183" s="11"/>
       <c r="K183" s="1"/>
     </row>
     <row r="184" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C184" s="10"/>
-      <c r="F184" s="15"/>
+      <c r="C184" s="8"/>
+      <c r="F184" s="11"/>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C185" s="10"/>
-      <c r="F185" s="15"/>
-      <c r="K185" s="1"/>
-    </row>
-    <row r="186" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C186" s="10"/>
-      <c r="F186" s="15"/>
-      <c r="K186" s="1"/>
-    </row>
+    <row r="185" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="187" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="188" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="189" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3679,16 +3774,14 @@
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A11:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -3748,19 +3841,19 @@
     </row>
     <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
-        <f>COUNTIF(TestCases!C1:C27,"*")</f>
-        <v>27</v>
+        <f>COUNTIF(TestCases!C1:C25,"*")</f>
+        <v>25</v>
       </c>
       <c r="B2" s="3">
-        <f>COUNTIF(TestCases!J1:P27,"Pass")</f>
+        <f>COUNTIF(TestCases!J1:P25,"Pass")</f>
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <f>COUNTIF(TestCases!J1:J27,"Fail")</f>
+        <f>COUNTIF(TestCases!J1:J25,"Fail")</f>
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <f>COUNTIF(TestCases!J1:J27,"Blocked")</f>
+        <f>COUNTIF(TestCases!J1:J25,"Blocked")</f>
         <v>0</v>
       </c>
       <c r="E2" s="3">

--- a/Test status report.xlsx
+++ b/Test status report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\Test status reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1E5E1-422F-4EDF-B830-2FFC38DEB305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9836FAD4-894B-4AD3-8951-C22FE1A779B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="142">
   <si>
     <t>Test Suite/Scenario</t>
   </si>
@@ -546,10 +546,6 @@
   </si>
   <si>
     <t>Forward to login form</t>
-  </si>
-  <si>
-    <t>Six products can be seen in cart
-"Remove" button changes to "Add to cart" button</t>
   </si>
   <si>
     <t>Product is removed and cart is empty</t>
@@ -1207,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1303,7 @@
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1357,7 +1353,7 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1805,11 +1801,11 @@
         <v>64</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -1836,7 +1832,7 @@
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -1886,7 +1882,7 @@
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -1911,7 +1907,7 @@
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -1936,7 +1932,7 @@
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -1961,7 +1957,7 @@
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -1986,7 +1982,7 @@
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -2013,7 +2009,7 @@
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
@@ -2037,10 +2033,10 @@
         <v>94</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -2064,10 +2060,10 @@
         <v>95</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -2091,10 +2087,10 @@
         <v>96</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -2119,7 +2115,7 @@
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
@@ -2146,7 +2142,7 @@
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -2171,7 +2167,7 @@
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
@@ -2196,7 +2192,7 @@
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
@@ -2221,7 +2217,7 @@
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
@@ -2248,7 +2244,7 @@
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
@@ -2273,7 +2269,7 @@
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>

--- a/Test status report.xlsx
+++ b/Test status report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\Test status reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9836FAD4-894B-4AD3-8951-C22FE1A779B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F55807-EB10-4B4C-B536-E786E90D8D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1402,8 +1402,8 @@
         <v>70</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="21" t="s">
-        <v>105</v>
+      <c r="H7" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1427,8 +1427,8 @@
         <v>71</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="21" t="s">
-        <v>105</v>
+      <c r="H8" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>

--- a/Test status report.xlsx
+++ b/Test status report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\Test status reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F55807-EB10-4B4C-B536-E786E90D8D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9791F863-C2EA-4CEF-80D0-D5427943BCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -224,11 +224,6 @@
   </si>
   <si>
     <t>1.open browser (Chrome) and acces website
-2.fill fields with valid credentials
-3.press "login"</t>
-  </si>
-  <si>
-    <t>1.open browser (Chrome) and acces website
 2.use a valid username and an invalid password
 3.press "login"</t>
   </si>
@@ -245,16 +240,6 @@
   <si>
     <t>1.open browser (Chrome) and acces website
 2.use a valid password and leave username field empty
-3.press "login"</t>
-  </si>
-  <si>
-    <t>1.open browser (Chrome) and acces website
-2.fill username field with capitals+ valid password
-3.press "login"</t>
-  </si>
-  <si>
-    <t>1.open browser (Chrome) and acces website
-2.fill password field with capitals+valid username
 3.press "login"</t>
   </si>
   <si>
@@ -382,15 +367,6 @@
 4.press menu option and logout
 5.relog with same credentials
 6.check cart</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.add 1 product in cart
-4.press cart icon
-5.press "checkout" button from cart form
-6.fill all fields with valid credentials
-7.press "continue" button</t>
   </si>
   <si>
     <t>1.open browser(Chrome) and acces website
@@ -416,36 +392,7 @@
 3.add 1 product in cart
 4.press cart icon
 5.press "checkout" button from cart form
-6.leave zip/postalcode field empty and fill other fields with valid credentials
-7.press "continue" button</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.add 1 product in cart
-4.press cart icon
-5.press "checkout" button from cart form
 6.press "cancel" button</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.add 1 product in cart
-4.press cart icon
-5.press "checkout" button from cart form
-6.fill all fields with valid credentials
-7.press "continue" button from checkout form
-8.press "cancel" button</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.add 1 product in cart
-4.press cart icon
-5.press "checkout" button from cart form
-6.fill all fields with valid credentials
-7.press "continue" button
-8.verify product/s details+ press "finish" button</t>
   </si>
   <si>
     <t>check total price with 1 product in cart</t>
@@ -462,12 +409,185 @@
 9.check total price</t>
   </si>
   <si>
+    <t>Forward to "Homepage"</t>
+  </si>
+  <si>
+    <t>Displayed message: "Epic sadface: Password is required"</t>
+  </si>
+  <si>
+    <t>Displayed message: "Epic sadface: Username is required"</t>
+  </si>
+  <si>
+    <t>All products can be seen on the homepage</t>
+  </si>
+  <si>
+    <t>Forward to a new page with selected product only.</t>
+  </si>
+  <si>
+    <t>Forward back to the homepage</t>
+  </si>
+  <si>
+    <t>Products will be displayed in alphabetical order from A to Z</t>
+  </si>
+  <si>
+    <t>Products will be displayed in alphabetical order from Z to A</t>
+  </si>
+  <si>
+    <t>Products will be sorted by price from Low to High</t>
+  </si>
+  <si>
+    <t>Products will be sorted by price from High to Low</t>
+  </si>
+  <si>
+    <t>One product can be seen in cart
+"Add to cart" button changes to "Remove" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six products can be seen in cart
+"Add to cart" button changes to "Remove" button for all products
+</t>
+  </si>
+  <si>
+    <t>Cart is empty
+"Remove" button changes to "Add to cart" button</t>
+  </si>
+  <si>
+    <t>Forward to homepage</t>
+  </si>
+  <si>
+    <t>Forward to another page</t>
+  </si>
+  <si>
+    <t>Forward to login form</t>
+  </si>
+  <si>
+    <t>Product is removed and cart is empty</t>
+  </si>
+  <si>
+    <t>Added product can be seen in cart with the correct details</t>
+  </si>
+  <si>
+    <t>Forward to checkout form</t>
+  </si>
+  <si>
+    <t>Checkout button is deactivated</t>
+  </si>
+  <si>
+    <t>Cart should contain the product added before relogin</t>
+  </si>
+  <si>
+    <t>Forward to checkout overview</t>
+  </si>
+  <si>
+    <t>Displayed message: "First name is required"</t>
+  </si>
+  <si>
+    <t>Displayed message: "Last name is required"</t>
+  </si>
+  <si>
+    <t>Displayed message: "Zip/PostalCode is required"</t>
+  </si>
+  <si>
+    <t>Sent back to cart form
+Cart should keep selected product</t>
+  </si>
+  <si>
+    <t>Sent back to products list (homepage)</t>
+  </si>
+  <si>
+    <t>Forward to checkout complete
+Message displayed: "Order completed"</t>
+  </si>
+  <si>
+    <t>Sent back to homepage</t>
+  </si>
+  <si>
+    <t>Cart should be empty</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.click on the picture of a product
+4.press "add to cart" button
+5.press "remove" button</t>
+  </si>
+  <si>
+    <t>First name: Blake
+Zip/PostalCode: 
+CM13 3EL</t>
+  </si>
+  <si>
+    <t>Last name: Jackson 
+Zip/PostalCode: 
+1110-1060</t>
+  </si>
+  <si>
+    <t>First name: Blake
+Second name: JACKSON</t>
+  </si>
+  <si>
+    <t>Displayed message: "Epic sadface: Username and password do not match any user in this service"</t>
+  </si>
+  <si>
+    <t>1.open browser (Chrome) and acces website
+2.fill in the fields with valid credentials
+3.press "login"</t>
+  </si>
+  <si>
+    <t>1.open browser (Chrome) and acces website
+2.fill in the username field with capitals+ valid password
+3.press "login"</t>
+  </si>
+  <si>
+    <t>1.open browser (Chrome) and acces website
+2.fill in the password field with capitals+valid username
+3.press "login"</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.add 1 product in cart
+4.press cart icon
+5.press "checkout" button from cart form
+6.fill in all fields with valid credentials
+7.press "continue" button</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.add 1 product in cart
+4.press cart icon
+5.press "checkout" button from cart form
+6.leave zip/postalcode field empty and fill in the other fields with valid credentials
+7.press "continue" button</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.add 1 product in cart
+4.press cart icon
+5.press "checkout" button from cart form
+6.fill in all fields with valid credentials
+7.press "continue" button from checkout form
+8.press "cancel" button</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.add 1 product in cart
+4.press cart icon
+5.press "checkout" button from cart form
+6.fill in all fields with valid credentials
+7.press "continue" button
+8.verify product/s details+ press "finish" button</t>
+  </si>
+  <si>
     <t>1.open browser(Chrome) and acces website
 2.login with valid credentials
 3.add 6 products in cart
 4.press cart icon
 5.press "checkout" button from cart form
-6.fill all fields with valid credentials
+6.fill in all fields with valid credentials
 7.press "continue" button
 8.verify product/s details+ press "finish" button
 9.check total price</t>
@@ -478,7 +598,7 @@
 3.add 1 product in cart
 4.press cart icon
 5.press "checkout" button from cart form
-6.fill all fields with valid credentials
+6.fill in all fields with valid credentials
 7.press "continue" button
 8.press "finish" button
 9.check message and press "back home" button</t>
@@ -489,137 +609,17 @@
 3.add 1 product in cart
 4.press cart icon
 5.press "checkout" button from cart form
-6.fill all fields with valid credentials
+6.fill in all fields with valid credentials
 7.press "continue" button
 8.press "finish" button
 9.check message and press "back home" button
 10.check cart</t>
   </si>
   <si>
-    <t>Forward to "Homepage"</t>
-  </si>
-  <si>
-    <t>Displayed message: "Epic sadface: Password is required"</t>
-  </si>
-  <si>
-    <t>Displayed message: "Epic sadface: Username is required"</t>
-  </si>
-  <si>
-    <t>All products can be seen on the homepage</t>
-  </si>
-  <si>
-    <t>Forward to a new page with selected product only.</t>
-  </si>
-  <si>
-    <t>Forward back to the homepage</t>
-  </si>
-  <si>
-    <t>Products will be displayed in alphabetical order from A to Z</t>
-  </si>
-  <si>
-    <t>Products will be displayed in alphabetical order from Z to A</t>
-  </si>
-  <si>
-    <t>Products will be sorted by price from Low to High</t>
-  </si>
-  <si>
-    <t>Products will be sorted by price from High to Low</t>
-  </si>
-  <si>
-    <t>One product can be seen in cart
-"Add to cart" button changes to "Remove" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Six products can be seen in cart
-"Add to cart" button changes to "Remove" button for all products
-</t>
-  </si>
-  <si>
-    <t>Cart is empty
-"Remove" button changes to "Add to cart" button</t>
-  </si>
-  <si>
-    <t>Forward to homepage</t>
-  </si>
-  <si>
-    <t>Forward to another page</t>
-  </si>
-  <si>
-    <t>Forward to login form</t>
-  </si>
-  <si>
-    <t>Product is removed and cart is empty</t>
-  </si>
-  <si>
-    <t>Added product can be seen in cart with the correct details</t>
-  </si>
-  <si>
-    <t>Forward to checkout form</t>
-  </si>
-  <si>
-    <t>Checkout button is deactivated</t>
-  </si>
-  <si>
-    <t>Cart should contain the product added before relogin</t>
-  </si>
-  <si>
-    <t>Forward to checkout overview</t>
-  </si>
-  <si>
-    <t>Displayed message: "First name is required"</t>
-  </si>
-  <si>
-    <t>Displayed message: "Last name is required"</t>
-  </si>
-  <si>
-    <t>Displayed message: "Zip/PostalCode is required"</t>
-  </si>
-  <si>
-    <t>Sent back to cart form
-Cart should keep selected product</t>
-  </si>
-  <si>
-    <t>Sent back to products list (homepage)</t>
-  </si>
-  <si>
-    <t>Forward to checkout complete
-Message displayed: "Order completed"</t>
-  </si>
-  <si>
-    <t>Total price matches the product price</t>
-  </si>
-  <si>
-    <t>Total price is the sum of all products prices</t>
-  </si>
-  <si>
-    <t>Sent back to homepage</t>
-  </si>
-  <si>
-    <t>Cart should be empty</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.click on the picture of a product
-4.press "add to cart" button
-5.press "remove" button</t>
-  </si>
-  <si>
-    <t>First name: Blake
-Zip/PostalCode: 
-CM13 3EL</t>
-  </si>
-  <si>
-    <t>Last name: Jackson 
-Zip/PostalCode: 
-1110-1060</t>
-  </si>
-  <si>
-    <t>First name: Blake
-Second name: JACKSON</t>
-  </si>
-  <si>
-    <t>Displayed message: "Epic sadface: Username and password do not match any user in this service"</t>
+    <t>Total price matches the product price +TAX</t>
+  </si>
+  <si>
+    <t>Total price is the sum of all products prices +TAX</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1274,11 +1274,11 @@
         <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
@@ -1299,11 +1299,11 @@
         <v>64</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1324,11 +1324,11 @@
         <v>64</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
@@ -1349,11 +1349,11 @@
         <v>64</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1374,11 +1374,11 @@
         <v>64</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -1399,11 +1399,11 @@
         <v>64</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1424,11 +1424,11 @@
         <v>64</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -1451,11 +1451,11 @@
         <v>64</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -1476,11 +1476,11 @@
         <v>64</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -1501,11 +1501,11 @@
         <v>64</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -1526,11 +1526,11 @@
         <v>64</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -1551,11 +1551,11 @@
         <v>64</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
@@ -1576,11 +1576,11 @@
         <v>64</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -1601,11 +1601,11 @@
         <v>64</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -1626,11 +1626,11 @@
         <v>64</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="21" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -1651,11 +1651,11 @@
         <v>64</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="21" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -1676,11 +1676,11 @@
         <v>64</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="21" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
@@ -1701,11 +1701,11 @@
         <v>64</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="21" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -1726,11 +1726,11 @@
         <v>64</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="21" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -1751,11 +1751,11 @@
         <v>64</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="21" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -1776,11 +1776,11 @@
         <v>64</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="21" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -1801,11 +1801,11 @@
         <v>64</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="21" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -1828,11 +1828,11 @@
         <v>64</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="21" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -1853,11 +1853,11 @@
         <v>64</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="21" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
@@ -1878,11 +1878,11 @@
         <v>64</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -1903,11 +1903,11 @@
         <v>64</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="21" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -1928,11 +1928,11 @@
         <v>64</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -1953,11 +1953,11 @@
         <v>64</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -1978,11 +1978,11 @@
         <v>64</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="21" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -2005,11 +2005,11 @@
         <v>64</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="21" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
@@ -2030,13 +2030,13 @@
         <v>64</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -2057,13 +2057,13 @@
         <v>64</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -2084,13 +2084,13 @@
         <v>64</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -2111,11 +2111,11 @@
         <v>64</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="21" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
@@ -2138,11 +2138,11 @@
         <v>64</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="21" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -2163,11 +2163,11 @@
         <v>64</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="21" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
@@ -2179,7 +2179,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D38" s="18">
         <v>1</v>
@@ -2188,11 +2188,11 @@
         <v>64</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
@@ -2213,11 +2213,11 @@
         <v>64</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
@@ -2240,11 +2240,11 @@
         <v>64</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="21" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
@@ -2265,11 +2265,11 @@
         <v>64</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="21" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>

--- a/Test status report.xlsx
+++ b/Test status report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\Test status reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9791F863-C2EA-4CEF-80D0-D5427943BCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF3947-0D06-4091-A247-988E105252DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,9 +470,6 @@
     <t>Forward to checkout form</t>
   </si>
   <si>
-    <t>Checkout button is deactivated</t>
-  </si>
-  <si>
     <t>Cart should contain the product added before relogin</t>
   </si>
   <si>
@@ -620,6 +617,9 @@
   </si>
   <si>
     <t>Total price is the sum of all products prices +TAX</t>
+  </si>
+  <si>
+    <t>Checkout button is disabled</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1274,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="21" t="s">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1399,11 +1399,11 @@
         <v>64</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1424,11 +1424,11 @@
         <v>64</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -1801,7 +1801,7 @@
         <v>64</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="21" t="s">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="21" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -2005,11 +2005,11 @@
         <v>64</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
@@ -2033,10 +2033,10 @@
         <v>90</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -2060,10 +2060,10 @@
         <v>91</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -2084,13 +2084,13 @@
         <v>64</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
@@ -2138,11 +2138,11 @@
         <v>64</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
@@ -2163,11 +2163,11 @@
         <v>64</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="22"/>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
@@ -2213,11 +2213,11 @@
         <v>64</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
@@ -2240,11 +2240,11 @@
         <v>64</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
@@ -2265,11 +2265,11 @@
         <v>64</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
